--- a/outputs-GTDB-r202/f__Acidaminococcaceae.xlsx
+++ b/outputs-GTDB-r202/f__Acidaminococcaceae.xlsx
@@ -856,7 +856,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>g__RZYP01</t>
+          <t>g__RZYP01(reject)</t>
         </is>
       </c>
     </row>
